--- a/template_sekundarstufe_2.xlsx
+++ b/template_sekundarstufe_2.xlsx
@@ -11,6 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tasks" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grades" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Additional" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Score" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -69,6 +71,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -494,7 +564,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -529,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -564,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -572,11 +642,11 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3 (9.7%)</t>
+          <t>4 (12.9%)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -634,7 +704,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -669,7 +739,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -704,7 +774,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -987,7 +1057,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1003,7 +1073,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1019,7 +1089,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1035,7 +1105,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1051,7 +1121,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1067,7 +1137,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1083,7 +1153,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1099,7 +1169,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1115,7 +1185,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1131,7 +1201,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1186,4 +1256,345 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Student E</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Student D</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Student G</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Student C</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Student H</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Student I</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Student A, Student J</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Student B, Student F</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Student E</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Student A, Student J</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Student B, Student F</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Student D</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Student G</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Student C</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Student H</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Student I</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/template_sekundarstufe_2.xlsx
+++ b/template_sekundarstufe_2.xlsx
@@ -502,7 +502,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22 (71.0%)</t>
+          <t>22.0 (71.0%)</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -537,7 +537,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27 (87.1%)</t>
+          <t>27.0 (87.1%)</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17 (54.8%)</t>
+          <t>17.0 (54.8%)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -607,7 +607,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9 (29.0%)</t>
+          <t>9.0 (29.0%)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -642,7 +642,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4 (12.9%)</t>
+          <t>4.0 (12.9%)</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -677,7 +677,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27 (87.1%)</t>
+          <t>27.0 (87.1%)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13 (41.9%)</t>
+          <t>13.0 (41.9%)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -747,7 +747,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19 (61.3%)</t>
+          <t>19.0 (61.3%)</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -782,7 +782,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20 (64.5%)</t>
+          <t>20.0 (64.5%)</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -817,7 +817,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22 (71.0%)</t>
+          <t>22.0 (71.0%)</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1296,7 +1296,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
